--- a/Mifos Automation Excels/Client/3015-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-DISB-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3015-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-DISB-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="709" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="709" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -336,10 +336,22 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,7 +677,7 @@
       <c r="A2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>42036</v>
       </c>
     </row>
@@ -676,10 +688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +705,7 @@
     <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -713,30 +725,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>785.8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
-        <v>10000</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1581.47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="10">
+        <v>9214.2000000000007</v>
+      </c>
+      <c r="F2" s="7">
+        <v>802.9</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>685.07</v>
+        <v>668.41</v>
       </c>
       <c r="B3" s="7">
-        <v>0</v>
+        <v>101.92</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -745,18 +758,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>685.07</v>
+        <v>566.49</v>
       </c>
       <c r="F3" s="7">
-        <v>193.97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B4" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
@@ -765,19 +778,18 @@
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <f>A4-B4</f>
         <v>0</v>
       </c>
       <c r="F4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B5" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -803,7 +815,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,18 +902,18 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L2" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="O2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -930,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
-        <v>987.74</v>
-      </c>
-      <c r="L3" s="18">
-        <v>987.74</v>
+        <v>887.72</v>
+      </c>
+      <c r="L3" s="7">
+        <v>887.72</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -976,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -988,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>888.57</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1019,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="7">
         <v>0</v>
@@ -1031,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="7">
-        <v>888.66</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1062,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L6" s="7">
         <v>0</v>
@@ -1074,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="7">
-        <v>888.47</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1105,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L7" s="7">
         <v>0</v>
@@ -1117,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="7">
-        <v>888.41</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -1148,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L8" s="7">
         <v>0</v>
@@ -1160,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="7">
-        <v>888.31</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1191,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -1203,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="7">
-        <v>888.25</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1234,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L10" s="7">
         <v>0</v>
@@ -1246,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="7">
-        <v>888.16</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1277,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L11" s="7">
         <v>0</v>
@@ -1289,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="7">
-        <v>888.06</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1320,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L12" s="7">
         <v>0</v>
@@ -1332,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="7">
-        <v>887.99</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1363,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>887.74</v>
+        <v>887.72</v>
       </c>
       <c r="L13" s="7">
         <v>0</v>
@@ -1375,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="7">
-        <v>887.89</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -1406,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>887.74</v>
+        <v>903.49</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1418,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>903.58</v>
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
@@ -1429,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1450,7 +1462,7 @@
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1482,101 +1494,107 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>196</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="20">
         <v>42036</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7">
-        <v>887.72</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="19">
+        <v>887.72</v>
+      </c>
+      <c r="F2" s="19">
         <v>785.8</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="19">
         <v>101.92</v>
       </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
+      <c r="H2" s="19">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="22">
         <v>9214.2000000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>194</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="20">
         <v>42005</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="19">
         <v>100</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0</v>
+      </c>
+      <c r="H3" s="19">
         <v>100</v>
       </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="I3" s="19">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>193</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="20">
         <v>42005</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="21">
         <v>10000</v>
       </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0</v>
+      </c>
+      <c r="H4" s="19">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21">
         <v>10000</v>
       </c>
+      <c r="K4"/>
+      <c r="L4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1587,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,11 +1704,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
@@ -1783,7 +1804,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,8 +1868,7 @@
       <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1874,8 +1894,7 @@
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1901,10 +1920,9 @@
       <c r="G4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/3015-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-DISB-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3015-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-TR-DISB-FEE-FLAT-Regular-CASH-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="709" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="709" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -812,10 +812,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,12 +833,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -878,17 +879,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -912,10 +914,11 @@
         <v>100</v>
       </c>
       <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
+      <c r="N2" s="19"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -953,14 +956,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="19"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -996,14 +1000,15 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="19"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1039,14 +1044,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="19"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1082,14 +1088,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="19"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1125,14 +1132,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="19"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1168,14 +1176,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="19"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1211,14 +1220,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="19"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1254,14 +1264,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="19"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1297,14 +1308,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="19"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1340,14 +1352,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12" s="19"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1383,14 +1396,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N13" s="19"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1426,10 +1440,11 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="19"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>903.49</v>
       </c>
     </row>
@@ -1605,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
